--- a/tut06/output/2001ME05.xlsx
+++ b/tut06/output/2001ME05.xlsx
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -779,7 +779,9 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -866,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -887,7 +889,9 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
